--- a/matlab/final/results/error plot and accuracy.xlsx
+++ b/matlab/final/results/error plot and accuracy.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="fpr and sens" sheetId="3" r:id="rId1"/>
-    <sheet name="dogs error" sheetId="1" r:id="rId2"/>
+    <sheet name="fpr and sens ot" sheetId="4" r:id="rId2"/>
+    <sheet name="dogs error" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
   <si>
     <t>Dog 1</t>
   </si>
@@ -52,6 +53,12 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>200,sens</t>
+  </si>
+  <si>
+    <t>200,fpr</t>
   </si>
 </sst>
 </file>
@@ -342,11 +349,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-328394080"/>
-        <c:axId val="-328391904"/>
+        <c:axId val="-588035808"/>
+        <c:axId val="-627460640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-328394080"/>
+        <c:axId val="-588035808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-328391904"/>
+        <c:crossAx val="-627460640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -397,7 +404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-328391904"/>
+        <c:axId val="-627460640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -505,7 +512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-328394080"/>
+        <c:crossAx val="-588035808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,11 +829,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-187088512"/>
-        <c:axId val="-187090688"/>
+        <c:axId val="-588035216"/>
+        <c:axId val="-627464288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-187088512"/>
+        <c:axId val="-588035216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-187090688"/>
+        <c:crossAx val="-627464288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,7 +884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-187090688"/>
+        <c:axId val="-627464288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -985,7 +992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-187088512"/>
+        <c:crossAx val="-588035216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,6 +1108,2889 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Dog 1 Sensitivity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and FPR</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sensitivity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'fpr and sens ot'!$A$2:$A$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'fpr and sens ot'!$B$2:$B$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.96666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.86666666666666703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FPR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'fpr and sens ot'!$H$2:$H$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'fpr and sens ot'!$I$2:$I$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99791666666666701</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99791666666666701</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99791666666666701</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99791666666666701</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99791666666666701</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99583333333333302</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99583333333333302</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99583333333333302</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99583333333333302</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99583333333333302</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.98958333333333304</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98333333333333295</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.97708333333333297</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.97708333333333297</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.96250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.96041666666666703</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.95416666666666705</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.94791666666666696</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.94374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.93958333333333299</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.92708333333333304</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92083333333333295</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92708333333333304</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.91041666666666698</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.91874999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.91458333333333297</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.91874999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.89375000000000004</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.90208333333333302</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.88958333333333295</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.88958333333333295</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.88333333333333297</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.89166666666666705</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.89166666666666705</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.88333333333333297</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.87083333333333302</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.87708333333333299</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.86458333333333304</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.86041666666666705</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.87083333333333302</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.85624999999999996</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.85833333333333295</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.84791666666666698</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.85833333333333295</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.83541666666666703</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.83750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.81874999999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.82708333333333295</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.82291666666666696</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.83958333333333302</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.83125000000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.82708333333333295</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.82083333333333297</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.82708333333333295</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.80625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.80833333333333401</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.79583333333333295</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.78958333333333397</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.79374999999999996</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.80416666666666703</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.79583333333333295</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.81666666666666698</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.79583333333333295</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.78749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.78958333333333297</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.80208333333333304</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.78333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.78333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.77083333333333304</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.78333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.76875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.76458333333333295</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.77083333333333304</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.76249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.76249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.76458333333333295</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.77083333333333304</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.76875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.73750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.74583333333333302</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.74791666666666701</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.77916666666666701</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.76041666666666696</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.76666666666666705</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.75624999999999998</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.73958333333333304</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.74375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.74791666666666701</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.74166666666666703</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.70208333333333295</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.69583333333333297</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.71458333333333302</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.69791666666666696</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.69791666666666696</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.70416666666666705</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.71666666666666701</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.70625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.70208333333333295</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.69583333333333297</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.69583333333333297</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.71458333333333302</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.71250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.71250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.71250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.70625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.69791666666666696</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.70208333333333295</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.68125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.70416666666666705</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.70208333333333295</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-590993072"/>
+        <c:axId val="-590996720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-590993072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-590996720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-590996720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-590993072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Error</a:t>
             </a:r>
             <a:r>
@@ -11885,11 +14775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-328403872"/>
-        <c:axId val="-328400064"/>
+        <c:axId val="-627469760"/>
+        <c:axId val="-627463072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-328403872"/>
+        <c:axId val="-627469760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -12003,12 +14893,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-328400064"/>
+        <c:crossAx val="-627463072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-328400064"/>
+        <c:axId val="-627463072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12126,7 +15016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-328403872"/>
+        <c:crossAx val="-627469760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12288,6 +15178,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13849,6 +16779,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13917,6 +17363,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14216,7 +17697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
@@ -14471,6 +17952,2860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>36</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>39</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>43</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>46</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>47</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>48</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>49</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>51</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>52</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>53</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>54</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>55</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>56</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>57</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>58</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>59</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>60</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+      <c r="I62">
+        <v>0.99791666666666701</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>62</v>
+      </c>
+      <c r="I63">
+        <v>0.99791666666666701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>63</v>
+      </c>
+      <c r="I64">
+        <v>0.99791666666666701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>64</v>
+      </c>
+      <c r="I65">
+        <v>0.99791666666666701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>65</v>
+      </c>
+      <c r="I66">
+        <v>0.99791666666666701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>66</v>
+      </c>
+      <c r="I67">
+        <v>0.99583333333333302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>67</v>
+      </c>
+      <c r="I68">
+        <v>0.99583333333333302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>68</v>
+      </c>
+      <c r="I69">
+        <v>0.99583333333333302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>69</v>
+      </c>
+      <c r="I70">
+        <v>0.99583333333333302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>70</v>
+      </c>
+      <c r="I71">
+        <v>0.99583333333333302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>71</v>
+      </c>
+      <c r="I72">
+        <v>0.99375000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>0.99375000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>0.99375000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>74</v>
+      </c>
+      <c r="I75">
+        <v>0.99375000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>75</v>
+      </c>
+      <c r="I76">
+        <v>0.98958333333333304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>76</v>
+      </c>
+      <c r="I77">
+        <v>0.98750000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>0.98750000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>78</v>
+      </c>
+      <c r="I79">
+        <v>0.98333333333333295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>79</v>
+      </c>
+      <c r="I80">
+        <v>0.97708333333333297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>80</v>
+      </c>
+      <c r="I81">
+        <v>0.97708333333333297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>81</v>
+      </c>
+      <c r="I82">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>82</v>
+      </c>
+      <c r="I83">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>83</v>
+      </c>
+      <c r="I84">
+        <v>0.96041666666666703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>84</v>
+      </c>
+      <c r="I85">
+        <v>0.95416666666666705</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>85</v>
+      </c>
+      <c r="I86">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>86</v>
+      </c>
+      <c r="I87">
+        <v>0.94791666666666696</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>87</v>
+      </c>
+      <c r="I88">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>88</v>
+      </c>
+      <c r="I89">
+        <v>0.93958333333333299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>89</v>
+      </c>
+      <c r="I90">
+        <v>0.93333333333333302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>90</v>
+      </c>
+      <c r="I91">
+        <v>0.93333333333333302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>91</v>
+      </c>
+      <c r="I92">
+        <v>0.92708333333333304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>92</v>
+      </c>
+      <c r="I93">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>93</v>
+      </c>
+      <c r="I94">
+        <v>0.92083333333333295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>94</v>
+      </c>
+      <c r="I95">
+        <v>0.92708333333333304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>95</v>
+      </c>
+      <c r="I96">
+        <v>0.91041666666666698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>96</v>
+      </c>
+      <c r="I97">
+        <v>0.91874999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>97</v>
+      </c>
+      <c r="I98">
+        <v>0.91458333333333297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>98</v>
+      </c>
+      <c r="I99">
+        <v>0.91874999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>99</v>
+      </c>
+      <c r="I100">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="I101">
+        <v>0.91249999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>101</v>
+      </c>
+      <c r="I102">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>102</v>
+      </c>
+      <c r="I103">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>103</v>
+      </c>
+      <c r="I104">
+        <v>0.89375000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>104</v>
+      </c>
+      <c r="I105">
+        <v>0.90208333333333302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>105</v>
+      </c>
+      <c r="I106">
+        <v>0.88958333333333295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>106</v>
+      </c>
+      <c r="I107">
+        <v>0.88958333333333295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>107</v>
+      </c>
+      <c r="I108">
+        <v>0.88333333333333297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>108</v>
+      </c>
+      <c r="I109">
+        <v>0.89166666666666705</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>109</v>
+      </c>
+      <c r="I110">
+        <v>0.89166666666666705</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>110</v>
+      </c>
+      <c r="I111">
+        <v>0.88333333333333297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>111</v>
+      </c>
+      <c r="I112">
+        <v>0.87083333333333302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>112</v>
+      </c>
+      <c r="I113">
+        <v>0.87708333333333299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>113</v>
+      </c>
+      <c r="I114">
+        <v>0.86458333333333304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>114</v>
+      </c>
+      <c r="I115">
+        <v>0.86041666666666705</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>115</v>
+      </c>
+      <c r="I116">
+        <v>0.87083333333333302</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>116</v>
+      </c>
+      <c r="I117">
+        <v>0.85624999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>117</v>
+      </c>
+      <c r="I118">
+        <v>0.85833333333333295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>118</v>
+      </c>
+      <c r="I119">
+        <v>0.84791666666666698</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>119</v>
+      </c>
+      <c r="I120">
+        <v>0.85833333333333295</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>120</v>
+      </c>
+      <c r="I121">
+        <v>0.83541666666666703</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>121</v>
+      </c>
+      <c r="I122">
+        <v>0.83750000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>122</v>
+      </c>
+      <c r="I123">
+        <v>0.81874999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>123</v>
+      </c>
+      <c r="I124">
+        <v>0.82708333333333295</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>124</v>
+      </c>
+      <c r="I125">
+        <v>0.82291666666666696</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>125</v>
+      </c>
+      <c r="I126">
+        <v>0.83958333333333302</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>126</v>
+      </c>
+      <c r="I127">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>127</v>
+      </c>
+      <c r="I128">
+        <v>0.83125000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>128</v>
+      </c>
+      <c r="I129">
+        <v>0.82708333333333295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>129</v>
+      </c>
+      <c r="I130">
+        <v>0.82083333333333297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>130</v>
+      </c>
+      <c r="I131">
+        <v>0.82708333333333295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H132">
+        <v>131</v>
+      </c>
+      <c r="I132">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>132</v>
+      </c>
+      <c r="I133">
+        <v>0.80625000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>133</v>
+      </c>
+      <c r="I134">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>134</v>
+      </c>
+      <c r="I135">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>135</v>
+      </c>
+      <c r="I136">
+        <v>0.80833333333333401</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H137">
+        <v>136</v>
+      </c>
+      <c r="I137">
+        <v>0.79583333333333295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H138">
+        <v>137</v>
+      </c>
+      <c r="I138">
+        <v>0.78958333333333397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>138</v>
+      </c>
+      <c r="I139">
+        <v>0.79374999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>139</v>
+      </c>
+      <c r="I140">
+        <v>0.80416666666666703</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H141">
+        <v>140</v>
+      </c>
+      <c r="I141">
+        <v>0.79583333333333295</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>141</v>
+      </c>
+      <c r="I142">
+        <v>0.81666666666666698</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>142</v>
+      </c>
+      <c r="I143">
+        <v>0.79583333333333295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H144">
+        <v>143</v>
+      </c>
+      <c r="I144">
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H145">
+        <v>144</v>
+      </c>
+      <c r="I145">
+        <v>0.78958333333333297</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H146">
+        <v>145</v>
+      </c>
+      <c r="I146">
+        <v>0.80208333333333304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H147">
+        <v>146</v>
+      </c>
+      <c r="I147">
+        <v>0.78333333333333299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>147</v>
+      </c>
+      <c r="I148">
+        <v>0.78333333333333299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H149">
+        <v>148</v>
+      </c>
+      <c r="I149">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>149</v>
+      </c>
+      <c r="I150">
+        <v>0.77083333333333304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H151">
+        <v>150</v>
+      </c>
+      <c r="I151">
+        <v>0.78333333333333299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H152">
+        <v>151</v>
+      </c>
+      <c r="I152">
+        <v>0.76875000000000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>152</v>
+      </c>
+      <c r="I153">
+        <v>0.76458333333333295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H154">
+        <v>153</v>
+      </c>
+      <c r="I154">
+        <v>0.77083333333333304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H155">
+        <v>154</v>
+      </c>
+      <c r="I155">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H156">
+        <v>155</v>
+      </c>
+      <c r="I156">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>156</v>
+      </c>
+      <c r="I157">
+        <v>0.76458333333333295</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H158">
+        <v>157</v>
+      </c>
+      <c r="I158">
+        <v>0.77083333333333304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H159">
+        <v>158</v>
+      </c>
+      <c r="I159">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H160">
+        <v>159</v>
+      </c>
+      <c r="I160">
+        <v>0.76875000000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H161">
+        <v>160</v>
+      </c>
+      <c r="I161">
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H162">
+        <v>161</v>
+      </c>
+      <c r="I162">
+        <v>0.74583333333333302</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H163">
+        <v>162</v>
+      </c>
+      <c r="I163">
+        <v>0.74791666666666701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H164">
+        <v>163</v>
+      </c>
+      <c r="I164">
+        <v>0.77916666666666701</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>0.9</v>
+      </c>
+      <c r="H165">
+        <v>164</v>
+      </c>
+      <c r="I165">
+        <v>0.76041666666666696</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H166">
+        <v>165</v>
+      </c>
+      <c r="I166">
+        <v>0.76666666666666705</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>0.9</v>
+      </c>
+      <c r="H167">
+        <v>166</v>
+      </c>
+      <c r="I167">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H168">
+        <v>167</v>
+      </c>
+      <c r="I168">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H169">
+        <v>168</v>
+      </c>
+      <c r="I169">
+        <v>0.75624999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H170">
+        <v>169</v>
+      </c>
+      <c r="I170">
+        <v>0.73958333333333304</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H171">
+        <v>170</v>
+      </c>
+      <c r="I171">
+        <v>0.74375000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H172">
+        <v>171</v>
+      </c>
+      <c r="I172">
+        <v>0.74791666666666701</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H173">
+        <v>172</v>
+      </c>
+      <c r="I173">
+        <v>0.74166666666666703</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H174">
+        <v>173</v>
+      </c>
+      <c r="I174">
+        <v>0.70208333333333295</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H175">
+        <v>174</v>
+      </c>
+      <c r="I175">
+        <v>0.69583333333333297</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H176">
+        <v>175</v>
+      </c>
+      <c r="I176">
+        <v>0.71458333333333302</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H177">
+        <v>176</v>
+      </c>
+      <c r="I177">
+        <v>0.69791666666666696</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H178">
+        <v>177</v>
+      </c>
+      <c r="I178">
+        <v>0.69791666666666696</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>0.9</v>
+      </c>
+      <c r="H179">
+        <v>178</v>
+      </c>
+      <c r="I179">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H180">
+        <v>179</v>
+      </c>
+      <c r="I180">
+        <v>0.70416666666666705</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H181">
+        <v>180</v>
+      </c>
+      <c r="I181">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>0.9</v>
+      </c>
+      <c r="H182">
+        <v>181</v>
+      </c>
+      <c r="I182">
+        <v>0.71666666666666701</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H183">
+        <v>182</v>
+      </c>
+      <c r="I183">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>0.9</v>
+      </c>
+      <c r="H184">
+        <v>183</v>
+      </c>
+      <c r="I184">
+        <v>0.70625000000000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H185">
+        <v>184</v>
+      </c>
+      <c r="I185">
+        <v>0.70208333333333295</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>0.9</v>
+      </c>
+      <c r="H186">
+        <v>185</v>
+      </c>
+      <c r="I186">
+        <v>0.69583333333333297</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>0.9</v>
+      </c>
+      <c r="H187">
+        <v>186</v>
+      </c>
+      <c r="I187">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>0.9</v>
+      </c>
+      <c r="H188">
+        <v>187</v>
+      </c>
+      <c r="I188">
+        <v>0.69583333333333297</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>0.9</v>
+      </c>
+      <c r="H189">
+        <v>188</v>
+      </c>
+      <c r="I189">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H190">
+        <v>189</v>
+      </c>
+      <c r="I190">
+        <v>0.71458333333333302</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>0.9</v>
+      </c>
+      <c r="H191">
+        <v>190</v>
+      </c>
+      <c r="I191">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>0.9</v>
+      </c>
+      <c r="H192">
+        <v>191</v>
+      </c>
+      <c r="I192">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H193">
+        <v>192</v>
+      </c>
+      <c r="I193">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H194">
+        <v>193</v>
+      </c>
+      <c r="I194">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H195">
+        <v>194</v>
+      </c>
+      <c r="I195">
+        <v>0.70625000000000004</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H196">
+        <v>195</v>
+      </c>
+      <c r="I196">
+        <v>0.69791666666666696</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H197">
+        <v>196</v>
+      </c>
+      <c r="I197">
+        <v>0.70208333333333295</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H198">
+        <v>197</v>
+      </c>
+      <c r="I198">
+        <v>0.68125000000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>0.9</v>
+      </c>
+      <c r="H199">
+        <v>198</v>
+      </c>
+      <c r="I199">
+        <v>0.70416666666666705</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H200">
+        <v>199</v>
+      </c>
+      <c r="I200">
+        <v>0.70208333333333295</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="H201">
+        <v>200</v>
+      </c>
+      <c r="I201">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F501"/>
   <sheetViews>

--- a/matlab/final/results/error plot and accuracy.xlsx
+++ b/matlab/final/results/error plot and accuracy.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
   <si>
     <t>Dog 1</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>200,fpr</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -349,11 +352,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-588035808"/>
-        <c:axId val="-627460640"/>
+        <c:axId val="-326380448"/>
+        <c:axId val="-204936448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-588035808"/>
+        <c:axId val="-326380448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-627460640"/>
+        <c:crossAx val="-204936448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -404,7 +407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-627460640"/>
+        <c:axId val="-204936448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -512,7 +515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-588035808"/>
+        <c:crossAx val="-326380448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -729,19 +732,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.0000000000000009</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6000000000000005</c:v>
+                  <c:v>56.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5069444444444402</c:v>
+                  <c:v>25.0694444444444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1169154228855698</c:v>
+                  <c:v>41.143518518518505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6222222222222196</c:v>
+                  <c:v>36.2222222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,16 +804,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>98.3333333333333</c:v>
+                  <c:v>86.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.1944444444444</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.556701030927798</c:v>
+                  <c:v>85.3333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>100</c:v>
@@ -829,11 +832,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-588035216"/>
-        <c:axId val="-627464288"/>
+        <c:axId val="-326379856"/>
+        <c:axId val="-204935232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-588035216"/>
+        <c:axId val="-326379856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-627464288"/>
+        <c:crossAx val="-204935232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -884,7 +887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-627464288"/>
+        <c:axId val="-204935232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -992,7 +995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-588035216"/>
+        <c:crossAx val="-326379856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,6 +1110,486 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>False Positive Rate and Sensitvity Of 10-Fold Cross Validation Predictions (1000 epochs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'fpr and sens'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'fpr and sens'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Dog 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dog 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dog 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dog 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dog 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'fpr and sens'!$I$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.9583333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.865740740740698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.7777777777778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'fpr and sens'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'fpr and sens'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Dog 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dog 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dog 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dog 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dog 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'fpr and sens'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.6666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-126645872"/>
+        <c:axId val="-207075024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-126645872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-207075024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-207075024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-126645872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Dog 1 Sensitivity</a:t>
             </a:r>
@@ -3638,11 +4121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-590993072"/>
-        <c:axId val="-590996720"/>
+        <c:axId val="-204950432"/>
+        <c:axId val="-204934016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-590993072"/>
+        <c:axId val="-204950432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3756,12 +4239,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-590996720"/>
+        <c:crossAx val="-204934016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-590996720"/>
+        <c:axId val="-204934016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3875,7 +4358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-590993072"/>
+        <c:crossAx val="-204950432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3956,7 +4439,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14775,11 +15258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-627469760"/>
-        <c:axId val="-627463072"/>
+        <c:axId val="-204932800"/>
+        <c:axId val="-204948608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-627469760"/>
+        <c:axId val="-204932800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -14893,12 +15376,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-627463072"/>
+        <c:crossAx val="-204948608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-627463072"/>
+        <c:axId val="-204948608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15016,7 +15499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-627469760"/>
+        <c:crossAx val="-204932800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15218,6 +15701,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16264,7 +16787,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16291,8 +16814,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -16393,7 +16916,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -16425,10 +16948,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -16468,23 +16991,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -16589,8 +17111,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -16722,20 +17244,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -16749,17 +17270,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -17295,20 +17805,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17354,6 +18380,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17695,10 +18753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17722,6 +18780,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -17843,6 +18904,9 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
       <c r="I5" t="s">
         <v>0</v>
       </c>
@@ -17864,42 +18928,42 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="C6">
-        <v>5.6000000000000001E-2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D6">
-        <v>2.5069444444444401E-2</v>
+        <v>0.250694444444444</v>
       </c>
       <c r="E6">
-        <v>4.1169154228855698E-2</v>
+        <v>0.41143518518518502</v>
       </c>
       <c r="F6">
-        <v>3.6222222222222197E-2</v>
+        <v>0.362222222222222</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
       </c>
       <c r="I6">
         <f>B6*100</f>
-        <v>7.0000000000000009</v>
+        <v>70</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J7" si="5">C6*100</f>
-        <v>5.6000000000000005</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K7" si="6">D6*100</f>
-        <v>2.5069444444444402</v>
+        <v>25.0694444444444</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L7" si="7">E6*100</f>
-        <v>4.1169154228855698</v>
+        <v>41.143518518518505</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6:M7" si="8">F6*100</f>
-        <v>3.6222222222222196</v>
+        <v>36.2222222222222</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -17907,16 +18971,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.98333333333333295</v>
+        <v>0.86666666666666703</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.98194444444444395</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E7">
-        <v>0.98556701030927796</v>
+        <v>0.85333333333333405</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -17926,7 +18990,7 @@
       </c>
       <c r="I7">
         <f>B7*100</f>
-        <v>98.3333333333333</v>
+        <v>86.6666666666667</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
@@ -17934,15 +18998,139 @@
       </c>
       <c r="K7">
         <f t="shared" si="6"/>
-        <v>98.1944444444444</v>
+        <v>82.5</v>
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
-        <v>98.556701030927798</v>
+        <v>85.3333333333334</v>
       </c>
       <c r="M7">
         <f t="shared" si="8"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.128</v>
+      </c>
+      <c r="C10">
+        <v>0.128</v>
+      </c>
+      <c r="D10">
+        <v>0.33958333333333302</v>
+      </c>
+      <c r="E10">
+        <v>0.218657407407407</v>
+      </c>
+      <c r="F10">
+        <v>0.21777777777777799</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <f>B10*100</f>
+        <v>12.8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J11" si="9">C10*100</f>
+        <v>12.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K11" si="10">D10*100</f>
+        <v>33.9583333333333</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L11" si="11">E10*100</f>
+        <v>21.865740740740698</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M11" si="12">F10*100</f>
+        <v>21.7777777777778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.871428571428571</v>
+      </c>
+      <c r="E11">
+        <v>0.74222222222222201</v>
+      </c>
+      <c r="F11">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <f>B11*100</f>
+        <v>97.5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="9"/>
+        <v>97.5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="10"/>
+        <v>87.142857142857096</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="11"/>
+        <v>74.2222222222222</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="12"/>
+        <v>96.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -20810,7 +21998,7 @@
   <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
